--- a/Results/Sharpe_FFF5.xlsx
+++ b/Results/Sharpe_FFF5.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="7">
   <si>
     <t>Row</t>
   </si>
@@ -54,7 +54,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -70,11 +70,39 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -84,6 +112,34 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -105,43 +161,43 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="35" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2">
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="35" t="s">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>0.029736772823821683</v>
+        <v>0.11677515079113118</v>
       </c>
       <c r="F2">
-        <v>-0.047299295723014001</v>
+        <v>0.079131920481139081</v>
       </c>
       <c r="G2">
-        <v>-0.020612144275420446</v>
+        <v>0.11587425577053966</v>
       </c>
       <c r="H2">
-        <v>-0.057597865313972166</v>
+        <v>0.11848249012147374</v>
       </c>
       <c r="I2">
-        <v>-0.050119396952060649</v>
+        <v>0.14115059318577475</v>
       </c>
     </row>
   </sheetData>
